--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value806.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value806.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.123450966085749</v>
+        <v>1.152424454689026</v>
       </c>
       <c r="B1">
-        <v>2.945417941648824</v>
+        <v>1.6400306224823</v>
       </c>
       <c r="C1">
-        <v>2.25310555920193</v>
+        <v>4.64898681640625</v>
       </c>
       <c r="D1">
-        <v>2.115656591539604</v>
+        <v>0.5950474739074707</v>
       </c>
       <c r="E1">
-        <v>1.880663051292152</v>
+        <v>0.6604103446006775</v>
       </c>
     </row>
   </sheetData>
